--- a/Proiect/people.xlsx
+++ b/Proiect/people.xlsx
@@ -28,100 +28,100 @@
     <x:t>City, State, Zip</x:t>
   </x:si>
   <x:si>
-    <x:t>Alexandra J Kirk</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 320-446-3234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jay.ruel2001@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Osseo, Minnesota(MN), 55369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathy J Olvera</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 765-674-0060</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bryon1997@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Marion, Indiana(IN), 46953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary S Millner</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 978-726-9274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>coty.baye6@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Woburn, Massachusetts(MA), 01801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lois C Deshazo</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 512-436-1685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kaia.welc0@hotmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Austin, Texas(TX), 78704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Christine Q Johnson</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 714-653-5460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>everardo.ber@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Irvine, California(CA), 92614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cheryl W Johnson</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 605-694-5391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bradley1974@yahoo.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Browns Valley, South Dakota(SD), 56219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Michael S Cobb</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 313-695-1300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elroy.mille2@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Detroit, Michigan(MI), 48219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leslie J Pitre</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 317-323-4384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>twila.gutkows@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Mccordsville, Indiana(IN), 46055</x:t>
+    <x:t>Timothy G Newton</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 312-349-8276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monte.shanah@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Burr Ridge, Illinois(IL), 60527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lena T Chandler</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 559-324-9215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delmer2013@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Fresno, California(CA), 93710</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rebecca T Sacks</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 630-722-9215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sidney1979@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Oak Brook, Illinois(IL), 60523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bonita J Bagley</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 915-329-4474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>larry_krajc@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> El Paso, Texas(TX), 79906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chester A Hicklin</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 585-243-9733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sandrine2008@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Geneseo, New York(NY), 14454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Christopher J Melendez</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 580-749-5751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lindsey.kemm@hotmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Oklahoma City, Oklahoma(OK), 73129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>James M Dahle</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 915-241-5461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alanna1975@yahoo.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> El Paso, Texas(TX), 79912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra M Davis</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 310-239-0564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>orrin_gleichn@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Los Angeles, California(CA), 90017</x:t>
   </x:si>
 </x:sst>
 </file>
